--- a/FieldData/ReferenceMarsh_AUG2019.xlsx
+++ b/FieldData/ReferenceMarsh_AUG2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danjstew\Documents\UBC\Thesis\Field Work\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danjstew\Documents\Git\TyphaData\FieldData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB5FFAB-96DB-4FC7-A000-6EA947631F78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8882C8-4B91-4005-9E30-57475E4F60DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10308" windowHeight="9036" xr2:uid="{27FF5637-F499-4FEC-BCC6-0C8B7970E957}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10305" windowHeight="9030" activeTab="1" xr2:uid="{27FF5637-F499-4FEC-BCC6-0C8B7970E957}"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="89">
   <si>
     <t>native</t>
   </si>
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>Crew: DS, CH</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>%COVER</t>
+  </si>
+  <si>
+    <t>REFERENCE</t>
   </si>
 </sst>
 </file>
@@ -328,12 +337,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,23 +661,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C381871-C6B7-4C7C-80F7-85331E06C965}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -679,22 +689,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA885B05-D584-4644-82C0-7FDB62D9A6EA}">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="6.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="6.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>79</v>
       </c>
@@ -707,14 +719,20 @@
       <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43705</v>
       </c>
@@ -727,14 +745,17 @@
       <c r="D2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43705</v>
       </c>
@@ -747,14 +768,17 @@
       <c r="D3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43705</v>
       </c>
@@ -767,14 +791,17 @@
       <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43705</v>
       </c>
@@ -787,14 +814,17 @@
       <c r="D5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43705</v>
       </c>
@@ -807,14 +837,17 @@
       <c r="D6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43705</v>
       </c>
@@ -827,14 +860,17 @@
       <c r="D7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43705</v>
       </c>
@@ -847,14 +883,17 @@
       <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43705</v>
       </c>
@@ -867,14 +906,17 @@
       <c r="D9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43705</v>
       </c>
@@ -887,14 +929,17 @@
       <c r="D10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43705</v>
       </c>
@@ -907,14 +952,17 @@
       <c r="D11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43705</v>
       </c>
@@ -927,14 +975,17 @@
       <c r="D12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43705</v>
       </c>
@@ -947,14 +998,17 @@
       <c r="D13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43705</v>
       </c>
@@ -967,14 +1021,17 @@
       <c r="D14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43705</v>
       </c>
@@ -987,14 +1044,17 @@
       <c r="D15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43705</v>
       </c>
@@ -1007,14 +1067,17 @@
       <c r="D16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43705</v>
       </c>
@@ -1027,14 +1090,17 @@
       <c r="D17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43705</v>
       </c>
@@ -1047,14 +1113,17 @@
       <c r="D18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43705</v>
       </c>
@@ -1067,14 +1136,17 @@
       <c r="D19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43705</v>
       </c>
@@ -1087,14 +1159,17 @@
       <c r="D20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43705</v>
       </c>
@@ -1107,14 +1182,17 @@
       <c r="D21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43705</v>
       </c>
@@ -1127,14 +1205,17 @@
       <c r="D22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43705</v>
       </c>
@@ -1147,14 +1228,17 @@
       <c r="D23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43705</v>
       </c>
@@ -1167,14 +1251,17 @@
       <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43705</v>
       </c>
@@ -1187,14 +1274,17 @@
       <c r="D25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43705</v>
       </c>
@@ -1207,14 +1297,17 @@
       <c r="D26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43705</v>
       </c>
@@ -1227,14 +1320,17 @@
       <c r="D27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43705</v>
       </c>
@@ -1247,14 +1343,17 @@
       <c r="D28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43705</v>
       </c>
@@ -1267,14 +1366,17 @@
       <c r="D29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43705</v>
       </c>
@@ -1287,14 +1389,17 @@
       <c r="D30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43705</v>
       </c>
@@ -1307,14 +1412,17 @@
       <c r="D31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43705</v>
       </c>
@@ -1327,14 +1435,17 @@
       <c r="D32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43705</v>
       </c>
@@ -1347,14 +1458,17 @@
       <c r="D33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43705</v>
       </c>
@@ -1367,14 +1481,17 @@
       <c r="D34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43705</v>
       </c>
@@ -1387,14 +1504,17 @@
       <c r="D35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43705</v>
       </c>
@@ -1407,14 +1527,17 @@
       <c r="D36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43705</v>
       </c>
@@ -1427,14 +1550,17 @@
       <c r="D37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43705</v>
       </c>
@@ -1447,14 +1573,17 @@
       <c r="D38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43705</v>
       </c>
@@ -1467,14 +1596,17 @@
       <c r="D39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43705</v>
       </c>
@@ -1487,14 +1619,17 @@
       <c r="D40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43705</v>
       </c>
@@ -1507,14 +1642,17 @@
       <c r="D41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43705</v>
       </c>
@@ -1527,14 +1665,17 @@
       <c r="D42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43705</v>
       </c>
@@ -1547,14 +1688,17 @@
       <c r="D43" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43705</v>
       </c>
@@ -1567,14 +1711,17 @@
       <c r="D44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43705</v>
       </c>
@@ -1587,14 +1734,17 @@
       <c r="D45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43705</v>
       </c>
@@ -1607,14 +1757,17 @@
       <c r="D46" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43705</v>
       </c>
@@ -1627,14 +1780,17 @@
       <c r="D47" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43705</v>
       </c>
@@ -1647,14 +1803,17 @@
       <c r="D48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43705</v>
       </c>
@@ -1667,14 +1826,17 @@
       <c r="D49" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43705</v>
       </c>
@@ -1687,14 +1849,17 @@
       <c r="D50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43705</v>
       </c>
@@ -1707,14 +1872,17 @@
       <c r="D51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43705</v>
       </c>
@@ -1727,14 +1895,17 @@
       <c r="D52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43705</v>
       </c>
@@ -1747,14 +1918,17 @@
       <c r="D53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43705</v>
       </c>
@@ -1767,14 +1941,17 @@
       <c r="D54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43705</v>
       </c>
@@ -1787,14 +1964,17 @@
       <c r="D55" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43705</v>
       </c>
@@ -1807,14 +1987,17 @@
       <c r="D56" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43705</v>
       </c>
@@ -1827,14 +2010,17 @@
       <c r="D57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43705</v>
       </c>
@@ -1847,14 +2033,17 @@
       <c r="D58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>43705</v>
       </c>
@@ -1867,14 +2056,17 @@
       <c r="D59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>43705</v>
       </c>
@@ -1887,14 +2079,17 @@
       <c r="D60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>43705</v>
       </c>
@@ -1907,14 +2102,17 @@
       <c r="D61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43705</v>
       </c>
@@ -1927,14 +2125,17 @@
       <c r="D62" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43705</v>
       </c>
@@ -1947,14 +2148,17 @@
       <c r="D63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43705</v>
       </c>
@@ -1967,14 +2171,17 @@
       <c r="D64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43705</v>
       </c>
@@ -1987,14 +2194,17 @@
       <c r="D65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43705</v>
       </c>
@@ -2007,14 +2217,17 @@
       <c r="D66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43705</v>
       </c>
@@ -2027,14 +2240,17 @@
       <c r="D67" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43705</v>
       </c>
@@ -2047,14 +2263,17 @@
       <c r="D68" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43705</v>
       </c>
@@ -2067,14 +2286,17 @@
       <c r="D69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43705</v>
       </c>
@@ -2087,14 +2309,17 @@
       <c r="D70" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43705</v>
       </c>
@@ -2107,14 +2332,17 @@
       <c r="D71" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43705</v>
       </c>
@@ -2127,14 +2355,17 @@
       <c r="D72" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43705</v>
       </c>
@@ -2147,14 +2378,17 @@
       <c r="D73" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H73" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43705</v>
       </c>
@@ -2167,14 +2401,17 @@
       <c r="D74" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43705</v>
       </c>
@@ -2187,14 +2424,17 @@
       <c r="D75" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43705</v>
       </c>
@@ -2207,14 +2447,17 @@
       <c r="D76" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43705</v>
       </c>
@@ -2227,14 +2470,17 @@
       <c r="D77" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43705</v>
       </c>
@@ -2247,14 +2493,17 @@
       <c r="D78" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43705</v>
       </c>
@@ -2267,14 +2516,17 @@
       <c r="D79" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43705</v>
       </c>
@@ -2287,14 +2539,17 @@
       <c r="D80" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43705</v>
       </c>
@@ -2307,14 +2562,17 @@
       <c r="D81" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43705</v>
       </c>
@@ -2327,14 +2585,17 @@
       <c r="D82" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43705</v>
       </c>
@@ -2347,14 +2608,17 @@
       <c r="D83" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H83" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43705</v>
       </c>
@@ -2367,14 +2631,17 @@
       <c r="D84" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43705</v>
       </c>
@@ -2387,14 +2654,17 @@
       <c r="D85" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43705</v>
       </c>
@@ -2407,14 +2677,17 @@
       <c r="D86" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
+        <v>88</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43705</v>
       </c>
@@ -2427,14 +2700,17 @@
       <c r="D87" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
+        <v>88</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43705</v>
       </c>
@@ -2447,14 +2723,17 @@
       <c r="D88" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" t="s">
+        <v>88</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43705</v>
       </c>
@@ -2467,14 +2746,17 @@
       <c r="D89" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43705</v>
       </c>
@@ -2487,14 +2769,17 @@
       <c r="D90" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
+        <v>88</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43705</v>
       </c>
@@ -2507,14 +2792,17 @@
       <c r="D91" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43705</v>
       </c>
@@ -2527,14 +2815,17 @@
       <c r="D92" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
+        <v>88</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43705</v>
       </c>
@@ -2547,14 +2838,17 @@
       <c r="D93" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
+        <v>88</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43705</v>
       </c>
@@ -2567,14 +2861,17 @@
       <c r="D94" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
+        <v>88</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>43705</v>
       </c>
@@ -2587,14 +2884,17 @@
       <c r="D95" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" t="s">
+        <v>88</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>43705</v>
       </c>
@@ -2607,14 +2907,17 @@
       <c r="D96" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" t="s">
+        <v>88</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>43705</v>
       </c>
@@ -2627,14 +2930,17 @@
       <c r="D97" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" t="s">
+        <v>88</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43705</v>
       </c>
@@ -2647,14 +2953,17 @@
       <c r="D98" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" t="s">
+        <v>88</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>43705</v>
       </c>
@@ -2667,14 +2976,17 @@
       <c r="D99" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" t="s">
+        <v>88</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>43705</v>
       </c>
@@ -2687,14 +2999,17 @@
       <c r="D100" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" t="s">
+        <v>88</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>43705</v>
       </c>
@@ -2707,14 +3022,17 @@
       <c r="D101" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" t="s">
+        <v>88</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43705</v>
       </c>
@@ -2727,14 +3045,17 @@
       <c r="D102" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" t="s">
+        <v>88</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43705</v>
       </c>
@@ -2747,14 +3068,17 @@
       <c r="D103" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" t="s">
+        <v>88</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>43705</v>
       </c>
@@ -2767,14 +3091,17 @@
       <c r="D104" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>43705</v>
       </c>
@@ -2787,14 +3114,17 @@
       <c r="D105" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" t="s">
+        <v>88</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43705</v>
       </c>
@@ -2807,14 +3137,17 @@
       <c r="D106" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>43705</v>
       </c>
@@ -2827,14 +3160,17 @@
       <c r="D107" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" t="s">
+        <v>88</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H107" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>43705</v>
       </c>
@@ -2847,14 +3183,17 @@
       <c r="D108" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" t="s">
+        <v>88</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>43705</v>
       </c>
@@ -2867,14 +3206,17 @@
       <c r="D109" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" t="s">
+        <v>88</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H109" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>43705</v>
       </c>
@@ -2887,14 +3229,17 @@
       <c r="D110" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" t="s">
+        <v>88</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>43705</v>
       </c>
@@ -2907,14 +3252,17 @@
       <c r="D111" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" t="s">
+        <v>88</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>43705</v>
       </c>
@@ -2927,14 +3275,17 @@
       <c r="D112" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" t="s">
+        <v>88</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>43705</v>
       </c>
@@ -2947,14 +3298,17 @@
       <c r="D113" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" t="s">
+        <v>88</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H113" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>43705</v>
       </c>
@@ -2967,14 +3321,17 @@
       <c r="D114" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" t="s">
+        <v>88</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>43705</v>
       </c>
@@ -2987,14 +3344,17 @@
       <c r="D115" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" t="s">
+        <v>88</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H115" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>43705</v>
       </c>
@@ -3007,14 +3367,17 @@
       <c r="D116" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" t="s">
+        <v>88</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H116" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>43705</v>
       </c>
@@ -3027,14 +3390,17 @@
       <c r="D117" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" t="s">
+        <v>88</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H117" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>43705</v>
       </c>
@@ -3047,14 +3413,17 @@
       <c r="D118" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" t="s">
+        <v>88</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>43705</v>
       </c>
@@ -3067,14 +3436,17 @@
       <c r="D119" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" t="s">
+        <v>88</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H119" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>43705</v>
       </c>
@@ -3087,14 +3459,17 @@
       <c r="D120" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" t="s">
+        <v>88</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H120" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>43705</v>
       </c>
@@ -3107,14 +3482,17 @@
       <c r="D121" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" t="s">
+        <v>88</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43705</v>
       </c>
@@ -3127,14 +3505,17 @@
       <c r="D122" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" t="s">
+        <v>88</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>43705</v>
       </c>
@@ -3147,14 +3528,17 @@
       <c r="D123" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" t="s">
+        <v>88</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H123" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>43705</v>
       </c>
@@ -3167,14 +3551,17 @@
       <c r="D124" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" t="s">
+        <v>88</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>43705</v>
       </c>
@@ -3187,14 +3574,17 @@
       <c r="D125" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" t="s">
+        <v>88</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H125" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43705</v>
       </c>
@@ -3207,14 +3597,17 @@
       <c r="D126" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" t="s">
+        <v>88</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H126" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43705</v>
       </c>
@@ -3227,14 +3620,17 @@
       <c r="D127" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" t="s">
+        <v>88</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>43705</v>
       </c>
@@ -3247,14 +3643,17 @@
       <c r="D128" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" t="s">
+        <v>88</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H128" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>43705</v>
       </c>
@@ -3267,14 +3666,17 @@
       <c r="D129" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="H129" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43705</v>
       </c>
@@ -3287,14 +3689,17 @@
       <c r="D130" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" t="s">
+        <v>88</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="H130" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>43705</v>
       </c>
@@ -3307,14 +3712,17 @@
       <c r="D131" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" t="s">
+        <v>88</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H131" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>43705</v>
       </c>
@@ -3327,14 +3735,17 @@
       <c r="D132" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" t="s">
+        <v>88</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H132" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>43705</v>
       </c>
@@ -3347,14 +3758,17 @@
       <c r="D133" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" t="s">
+        <v>88</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H133" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>43705</v>
       </c>
@@ -3367,14 +3781,17 @@
       <c r="D134" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" t="s">
+        <v>88</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H134" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>43705</v>
       </c>
@@ -3387,14 +3804,17 @@
       <c r="D135" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" t="s">
+        <v>88</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H135" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>43705</v>
       </c>
@@ -3407,14 +3827,17 @@
       <c r="D136" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" t="s">
+        <v>88</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H136" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>43705</v>
       </c>
@@ -3427,14 +3850,17 @@
       <c r="D137" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" t="s">
+        <v>88</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H137" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>43705</v>
       </c>
@@ -3447,14 +3873,17 @@
       <c r="D138" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" t="s">
+        <v>88</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="H138" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>43705</v>
       </c>
@@ -3467,14 +3896,17 @@
       <c r="D139" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" t="s">
+        <v>88</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H139" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>43705</v>
       </c>
@@ -3487,14 +3919,17 @@
       <c r="D140" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" t="s">
+        <v>88</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>43705</v>
       </c>
@@ -3507,14 +3942,17 @@
       <c r="D141" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" t="s">
+        <v>88</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H141" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43705</v>
       </c>
@@ -3527,14 +3965,17 @@
       <c r="D142" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" t="s">
+        <v>88</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H142" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>43705</v>
       </c>
@@ -3547,14 +3988,17 @@
       <c r="D143" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" t="s">
+        <v>88</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H143" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>43705</v>
       </c>
@@ -3567,14 +4011,17 @@
       <c r="D144" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" t="s">
+        <v>88</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H144" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>43705</v>
       </c>
@@ -3587,14 +4034,17 @@
       <c r="D145" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" t="s">
+        <v>88</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H145" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>43705</v>
       </c>
@@ -3607,14 +4057,17 @@
       <c r="D146" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" t="s">
+        <v>88</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>43705</v>
       </c>
@@ -3627,14 +4080,17 @@
       <c r="D147" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" t="s">
+        <v>88</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H147" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>43705</v>
       </c>
@@ -3647,14 +4103,17 @@
       <c r="D148" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" t="s">
+        <v>88</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H148" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>43705</v>
       </c>
@@ -3667,14 +4126,17 @@
       <c r="D149" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" t="s">
+        <v>88</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="H149" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>43705</v>
       </c>
@@ -3687,14 +4149,17 @@
       <c r="D150" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" t="s">
+        <v>88</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H150" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>43705</v>
       </c>
@@ -3707,14 +4172,17 @@
       <c r="D151" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" t="s">
+        <v>88</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>43705</v>
       </c>
@@ -3727,14 +4195,17 @@
       <c r="D152" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" t="s">
+        <v>88</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H152" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>43705</v>
       </c>
@@ -3747,14 +4218,17 @@
       <c r="D153" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" t="s">
+        <v>88</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H153" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>43705</v>
       </c>
@@ -3767,14 +4241,17 @@
       <c r="D154" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" t="s">
+        <v>88</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H154" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>43705</v>
       </c>
@@ -3787,14 +4264,17 @@
       <c r="D155" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" t="s">
+        <v>88</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H155" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>43705</v>
       </c>
@@ -3807,14 +4287,17 @@
       <c r="D156" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" t="s">
+        <v>88</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H156" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>43705</v>
       </c>
@@ -3827,14 +4310,17 @@
       <c r="D157" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" t="s">
+        <v>88</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H157" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>43705</v>
       </c>
@@ -3847,14 +4333,17 @@
       <c r="D158" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" t="s">
+        <v>88</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>43705</v>
       </c>
@@ -3867,14 +4356,17 @@
       <c r="D159" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" t="s">
+        <v>88</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="H159" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>43705</v>
       </c>
@@ -3887,14 +4379,17 @@
       <c r="D160" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" t="s">
+        <v>88</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H160" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>43705</v>
       </c>
@@ -3907,14 +4402,17 @@
       <c r="D161" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" t="s">
+        <v>88</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H161" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>43705</v>
       </c>
@@ -3927,14 +4425,17 @@
       <c r="D162" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" t="s">
+        <v>88</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H162" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>43705</v>
       </c>
@@ -3947,14 +4448,17 @@
       <c r="D163" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" t="s">
+        <v>88</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H163" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>43705</v>
       </c>
@@ -3967,14 +4471,17 @@
       <c r="D164" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" t="s">
+        <v>88</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="H164" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>43705</v>
       </c>
@@ -3987,14 +4494,17 @@
       <c r="D165" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" t="s">
+        <v>88</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H165" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>43705</v>
       </c>
@@ -4007,14 +4517,17 @@
       <c r="D166" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" t="s">
+        <v>88</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H166" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>43705</v>
       </c>
@@ -4027,14 +4540,17 @@
       <c r="D167" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" t="s">
+        <v>88</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H167" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>43705</v>
       </c>
@@ -4047,14 +4563,17 @@
       <c r="D168" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" t="s">
+        <v>88</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>43705</v>
       </c>
@@ -4067,14 +4586,17 @@
       <c r="D169" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" t="s">
+        <v>88</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H169" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>43705</v>
       </c>
@@ -4087,14 +4609,17 @@
       <c r="D170" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" t="s">
+        <v>88</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H170" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>43705</v>
       </c>
@@ -4107,14 +4632,17 @@
       <c r="D171" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" t="s">
+        <v>88</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H171" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>43705</v>
       </c>
@@ -4127,14 +4655,17 @@
       <c r="D172" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E172" t="s">
+        <v>88</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H172" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>43705</v>
       </c>
@@ -4147,14 +4678,17 @@
       <c r="D173" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E173" t="s">
+        <v>88</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H173" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>43705</v>
       </c>
@@ -4167,14 +4701,17 @@
       <c r="D174" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E174" t="s">
+        <v>88</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H174" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>43705</v>
       </c>
@@ -4187,14 +4724,17 @@
       <c r="D175" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E175" t="s">
+        <v>88</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H175" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>43705</v>
       </c>
@@ -4207,14 +4747,17 @@
       <c r="D176" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E176" t="s">
+        <v>88</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="H176" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>43705</v>
       </c>
@@ -4227,14 +4770,17 @@
       <c r="D177" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E177" t="s">
+        <v>88</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H177" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>43705</v>
       </c>
@@ -4247,14 +4793,17 @@
       <c r="D178" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E178" t="s">
+        <v>88</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H178" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>43705</v>
       </c>
@@ -4267,14 +4816,17 @@
       <c r="D179" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" t="s">
+        <v>88</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H179" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>43705</v>
       </c>
@@ -4287,14 +4839,17 @@
       <c r="D180" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" t="s">
+        <v>88</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H180" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>43705</v>
       </c>
@@ -4307,14 +4862,17 @@
       <c r="D181" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" t="s">
+        <v>88</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H181" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>43705</v>
       </c>
@@ -4327,14 +4885,17 @@
       <c r="D182" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" t="s">
+        <v>88</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H182" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>43705</v>
       </c>
@@ -4347,14 +4908,17 @@
       <c r="D183" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E183" t="s">
+        <v>88</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F183" s="1" t="s">
+      <c r="H183" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>43705</v>
       </c>
@@ -4367,14 +4931,17 @@
       <c r="D184" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E184" t="s">
+        <v>88</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H184" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>43705</v>
       </c>
@@ -4387,14 +4954,17 @@
       <c r="D185" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E185" t="s">
+        <v>88</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>43705</v>
       </c>
@@ -4407,14 +4977,17 @@
       <c r="D186" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" t="s">
+        <v>88</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H186" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>43705</v>
       </c>
@@ -4427,14 +5000,17 @@
       <c r="D187" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" t="s">
+        <v>88</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F187" s="1" t="s">
+      <c r="H187" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>43705</v>
       </c>
@@ -4447,14 +5023,17 @@
       <c r="D188" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E188" t="s">
+        <v>88</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H188" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>43705</v>
       </c>
@@ -4467,14 +5046,17 @@
       <c r="D189" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E189" t="s">
+        <v>88</v>
+      </c>
+      <c r="F189" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H189" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>43705</v>
       </c>
@@ -4487,14 +5069,17 @@
       <c r="D190" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E190" t="s">
+        <v>88</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H190" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>43705</v>
       </c>
@@ -4507,14 +5092,17 @@
       <c r="D191" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" t="s">
+        <v>88</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H191" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>43705</v>
       </c>
@@ -4527,14 +5115,17 @@
       <c r="D192" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" t="s">
+        <v>88</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>43705</v>
       </c>
@@ -4547,14 +5138,17 @@
       <c r="D193" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" t="s">
+        <v>88</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H193" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>43705</v>
       </c>
@@ -4567,14 +5161,17 @@
       <c r="D194" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="E194" t="s">
+        <v>88</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H194" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>43705</v>
       </c>
@@ -4587,14 +5184,17 @@
       <c r="D195" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E195" t="s">
+        <v>88</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H195" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>43705</v>
       </c>
@@ -4607,14 +5207,17 @@
       <c r="D196" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E196" t="s">
+        <v>88</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H196" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>43705</v>
       </c>
@@ -4627,14 +5230,17 @@
       <c r="D197" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="E197" t="s">
+        <v>88</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H197" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>43705</v>
       </c>
@@ -4647,14 +5253,17 @@
       <c r="D198" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="E198" t="s">
+        <v>88</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H198" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>43705</v>
       </c>
@@ -4667,14 +5276,17 @@
       <c r="D199" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E199" t="s">
+        <v>88</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H199" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>43705</v>
       </c>
@@ -4687,14 +5299,17 @@
       <c r="D200" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" t="s">
+        <v>88</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H200" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>43705</v>
       </c>
@@ -4707,14 +5322,17 @@
       <c r="D201" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E201" t="s">
+        <v>88</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>43705</v>
       </c>
@@ -4727,14 +5345,17 @@
       <c r="D202" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E202" t="s">
+        <v>88</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H202" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>43705</v>
       </c>
@@ -4747,14 +5368,17 @@
       <c r="D203" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="E203" t="s">
+        <v>88</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F203" s="1" t="s">
+      <c r="H203" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>43705</v>
       </c>
@@ -4767,14 +5391,17 @@
       <c r="D204" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="E204" t="s">
+        <v>88</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H204" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>43705</v>
       </c>
@@ -4787,14 +5414,17 @@
       <c r="D205" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="E205" t="s">
+        <v>88</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F205" s="1" t="s">
+      <c r="H205" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>43705</v>
       </c>
@@ -4807,14 +5437,17 @@
       <c r="D206" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="E206" t="s">
+        <v>88</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H206" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>43705</v>
       </c>
@@ -4827,14 +5460,17 @@
       <c r="D207" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="E207" t="s">
+        <v>88</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="H207" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>43705</v>
       </c>
@@ -4847,14 +5483,17 @@
       <c r="D208" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E208" t="s">
+        <v>88</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H208" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>43705</v>
       </c>
@@ -4867,14 +5506,17 @@
       <c r="D209" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="E209" t="s">
+        <v>88</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="H209" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>43705</v>
       </c>
@@ -4887,14 +5529,17 @@
       <c r="D210" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E210" t="s">
+        <v>88</v>
+      </c>
+      <c r="F210" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H210" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>43705</v>
       </c>
@@ -4907,14 +5552,17 @@
       <c r="D211" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="E211" t="s">
+        <v>88</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="H211" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>43705</v>
       </c>
@@ -4927,14 +5575,17 @@
       <c r="D212" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="E212" t="s">
+        <v>88</v>
+      </c>
+      <c r="F212" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H212" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>43705</v>
       </c>
@@ -4947,14 +5598,17 @@
       <c r="D213" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="E213" t="s">
+        <v>88</v>
+      </c>
+      <c r="F213" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H213" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>43705</v>
       </c>
@@ -4967,14 +5621,17 @@
       <c r="D214" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="E214" t="s">
+        <v>88</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H214" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>43705</v>
       </c>
@@ -4987,14 +5644,17 @@
       <c r="D215" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E215" t="s">
+        <v>88</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H215" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>43705</v>
       </c>
@@ -5007,14 +5667,17 @@
       <c r="D216" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="E216" t="s">
+        <v>88</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H216" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>43705</v>
       </c>
@@ -5027,14 +5690,17 @@
       <c r="D217" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E217" t="s">
+        <v>88</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>43705</v>
       </c>
@@ -5047,14 +5713,17 @@
       <c r="D218" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="E218" t="s">
+        <v>88</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H218" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>43705</v>
       </c>
@@ -5067,14 +5736,17 @@
       <c r="D219" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="E219" t="s">
+        <v>88</v>
+      </c>
+      <c r="F219" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H219" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>43705</v>
       </c>
@@ -5087,14 +5759,17 @@
       <c r="D220" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="E220" t="s">
+        <v>88</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H220" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>43705</v>
       </c>
@@ -5107,14 +5782,17 @@
       <c r="D221" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="E221" t="s">
+        <v>88</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="H221" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>43705</v>
       </c>
@@ -5127,14 +5805,17 @@
       <c r="D222" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E222" t="s">
+        <v>88</v>
+      </c>
+      <c r="F222" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H222" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>43705</v>
       </c>
@@ -5147,14 +5828,17 @@
       <c r="D223" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="E223" t="s">
+        <v>88</v>
+      </c>
+      <c r="F223" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H223" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>43705</v>
       </c>
@@ -5167,14 +5851,17 @@
       <c r="D224" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E224" s="1" t="s">
+      <c r="E224" t="s">
+        <v>88</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H224" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>43705</v>
       </c>
@@ -5187,14 +5874,17 @@
       <c r="D225" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E225" s="1" t="s">
+      <c r="E225" t="s">
+        <v>88</v>
+      </c>
+      <c r="F225" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F225" s="1" t="s">
+      <c r="H225" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>43705</v>
       </c>
@@ -5207,14 +5897,17 @@
       <c r="D226" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="E226" t="s">
+        <v>88</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H226" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>43705</v>
       </c>
@@ -5227,14 +5920,17 @@
       <c r="D227" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="E227" t="s">
+        <v>88</v>
+      </c>
+      <c r="F227" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H227" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>43705</v>
       </c>
@@ -5247,14 +5943,17 @@
       <c r="D228" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="E228" t="s">
+        <v>88</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H228" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>43705</v>
       </c>
@@ -5267,14 +5966,17 @@
       <c r="D229" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="E229" t="s">
+        <v>88</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H229" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>43705</v>
       </c>
@@ -5287,14 +5989,17 @@
       <c r="D230" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E230" t="s">
+        <v>88</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H230" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>43705</v>
       </c>
@@ -5307,14 +6012,17 @@
       <c r="D231" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="E231" t="s">
+        <v>88</v>
+      </c>
+      <c r="F231" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H231" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>43705</v>
       </c>
@@ -5327,14 +6035,17 @@
       <c r="D232" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="E232" t="s">
+        <v>88</v>
+      </c>
+      <c r="F232" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H232" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>43705</v>
       </c>
@@ -5347,14 +6058,17 @@
       <c r="D233" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E233" s="1" t="s">
+      <c r="E233" t="s">
+        <v>88</v>
+      </c>
+      <c r="F233" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F233" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H233" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>43705</v>
       </c>
@@ -5367,14 +6081,17 @@
       <c r="D234" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E234" s="1" t="s">
+      <c r="E234" t="s">
+        <v>88</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H234" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>43705</v>
       </c>
@@ -5387,14 +6104,17 @@
       <c r="D235" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="E235" t="s">
+        <v>88</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="H235" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>43705</v>
       </c>
@@ -5407,14 +6127,17 @@
       <c r="D236" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="E236" t="s">
+        <v>88</v>
+      </c>
+      <c r="F236" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H236" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>43705</v>
       </c>
@@ -5427,14 +6150,17 @@
       <c r="D237" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E237" s="1" t="s">
+      <c r="E237" t="s">
+        <v>88</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H237" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>43705</v>
       </c>
@@ -5447,14 +6173,17 @@
       <c r="D238" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E238" t="s">
+        <v>88</v>
+      </c>
+      <c r="F238" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H238" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>43705</v>
       </c>
@@ -5467,14 +6196,17 @@
       <c r="D239" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="E239" t="s">
+        <v>88</v>
+      </c>
+      <c r="F239" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H239" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>43705</v>
       </c>
@@ -5487,14 +6219,17 @@
       <c r="D240" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="E240" t="s">
+        <v>88</v>
+      </c>
+      <c r="F240" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H240" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>43705</v>
       </c>
@@ -5507,14 +6242,17 @@
       <c r="D241" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="E241" t="s">
+        <v>88</v>
+      </c>
+      <c r="F241" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H241" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>43705</v>
       </c>
@@ -5527,14 +6265,17 @@
       <c r="D242" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="E242" t="s">
+        <v>88</v>
+      </c>
+      <c r="F242" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F242" s="1" t="s">
+      <c r="H242" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>43705</v>
       </c>
@@ -5547,14 +6288,17 @@
       <c r="D243" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E243" s="1" t="s">
+      <c r="E243" t="s">
+        <v>88</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F243" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H243" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>43705</v>
       </c>
@@ -5567,14 +6311,17 @@
       <c r="D244" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E244" s="1" t="s">
+      <c r="E244" t="s">
+        <v>88</v>
+      </c>
+      <c r="F244" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F244" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H244" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>43705</v>
       </c>
@@ -5587,14 +6334,17 @@
       <c r="D245" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E245" s="1" t="s">
+      <c r="E245" t="s">
+        <v>88</v>
+      </c>
+      <c r="F245" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F245" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H245" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>43705</v>
       </c>
@@ -5607,14 +6357,17 @@
       <c r="D246" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E246" s="1" t="s">
+      <c r="E246" t="s">
+        <v>88</v>
+      </c>
+      <c r="F246" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H246" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>43705</v>
       </c>
@@ -5627,14 +6380,17 @@
       <c r="D247" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E247" s="1" t="s">
+      <c r="E247" t="s">
+        <v>88</v>
+      </c>
+      <c r="F247" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F247" s="1" t="s">
+      <c r="H247" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>43705</v>
       </c>
@@ -5647,14 +6403,17 @@
       <c r="D248" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="E248" t="s">
+        <v>88</v>
+      </c>
+      <c r="F248" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F248" s="1" t="s">
+      <c r="H248" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>43705</v>
       </c>
@@ -5667,14 +6426,17 @@
       <c r="D249" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E249" s="1" t="s">
+      <c r="E249" t="s">
+        <v>88</v>
+      </c>
+      <c r="F249" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H249" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>43705</v>
       </c>
@@ -5687,14 +6449,17 @@
       <c r="D250" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="E250" t="s">
+        <v>88</v>
+      </c>
+      <c r="F250" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F250" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H250" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>43705</v>
       </c>
@@ -5707,14 +6472,17 @@
       <c r="D251" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E251" s="1" t="s">
+      <c r="E251" t="s">
+        <v>88</v>
+      </c>
+      <c r="F251" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F251" s="1" t="s">
+      <c r="H251" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>43705</v>
       </c>
@@ -5727,14 +6495,17 @@
       <c r="D252" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E252" s="1" t="s">
+      <c r="E252" t="s">
+        <v>88</v>
+      </c>
+      <c r="F252" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F252" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H252" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>43705</v>
       </c>
@@ -5747,14 +6518,17 @@
       <c r="D253" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E253" s="1" t="s">
+      <c r="E253" t="s">
+        <v>88</v>
+      </c>
+      <c r="F253" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F253" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H253" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>43705</v>
       </c>
@@ -5767,14 +6541,17 @@
       <c r="D254" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E254" s="1" t="s">
+      <c r="E254" t="s">
+        <v>88</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F254" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H254" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>43705</v>
       </c>
@@ -5787,14 +6564,17 @@
       <c r="D255" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="E255" t="s">
+        <v>88</v>
+      </c>
+      <c r="F255" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="H255" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>43705</v>
       </c>
@@ -5807,14 +6587,17 @@
       <c r="D256" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="E256" t="s">
+        <v>88</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H256" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>43705</v>
       </c>
@@ -5827,14 +6610,17 @@
       <c r="D257" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="E257" t="s">
+        <v>88</v>
+      </c>
+      <c r="F257" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F257" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H257" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>43705</v>
       </c>
@@ -5847,10 +6633,13 @@
       <c r="D258" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="E258" t="s">
+        <v>88</v>
+      </c>
+      <c r="F258" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F258" s="1" t="s">
+      <c r="H258" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5868,14 +6657,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
@@ -5883,7 +6672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -5891,7 +6680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -5899,7 +6688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -5907,7 +6696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -5915,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -5923,7 +6712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -5931,7 +6720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -5939,7 +6728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -5947,7 +6736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -5955,7 +6744,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -5963,7 +6752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -5971,7 +6760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -5979,7 +6768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -5987,7 +6776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
@@ -5995,7 +6784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>72</v>
       </c>
@@ -6003,7 +6792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
@@ -6011,7 +6800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -6019,7 +6808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -6027,7 +6816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
@@ -6035,7 +6824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -6043,7 +6832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -6051,7 +6840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -6059,7 +6848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -6067,7 +6856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
@@ -6075,7 +6864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -6083,7 +6872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -6091,7 +6880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -6099,7 +6888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -6107,7 +6896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -6115,7 +6904,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -6123,7 +6912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -6131,7 +6920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -6139,7 +6928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -6147,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -6155,7 +6944,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -6163,7 +6952,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -6171,7 +6960,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -6179,7 +6968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f>AVERAGE(B2:B38)</f>
         <v>36.702702702702702</v>
